--- a/public/template/TemplateSiswa.xlsx
+++ b/public/template/TemplateSiswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Coding\Laravel Project\LangkahEducation\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{728DEA38-99BE-4D2E-AED3-0DF014EF5BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3CD4F6-922A-4409-9C3C-023AD3893514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD2C52B4-AE11-4CA1-AD86-BE9E44EA388A}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nama Siswa</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Nomer Hp</t>
+  </si>
+  <si>
+    <t>Asal Sekolah</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DF3159-ED26-412C-8460-5E369615AB93}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +464,7 @@
     <col min="4" max="4" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,6 +479,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/TemplateSiswa.xlsx
+++ b/public/template/TemplateSiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Coding\Laravel Project\LangkahEducation\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3CD4F6-922A-4409-9C3C-023AD3893514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA461FC-409F-499A-BBDB-10B34ED1D8F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD2C52B4-AE11-4CA1-AD86-BE9E44EA388A}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nama Siswa</t>
   </si>
@@ -86,13 +86,22 @@
   </si>
   <si>
     <t>Asal Sekolah</t>
+  </si>
+  <si>
+    <t>adawd</t>
+  </si>
+  <si>
+    <t>wdad@gmail.com</t>
+  </si>
+  <si>
+    <t>jawdj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +123,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,13 +150,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DF3159-ED26-412C-8460-5E369615AB93}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,8 +506,31 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1876</v>
+      </c>
+      <c r="D2" s="1">
+        <v>36067</v>
+      </c>
+      <c r="E2">
+        <v>8177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FBC8214B-FDD2-4AD9-9591-C8FEE4C16B37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/template/TemplateSiswa.xlsx
+++ b/public/template/TemplateSiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Coding\Laravel Project\LangkahEducation\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA461FC-409F-499A-BBDB-10B34ED1D8F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F48A56-4821-425D-B689-B9B41E6C7A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD2C52B4-AE11-4CA1-AD86-BE9E44EA388A}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nama Siswa</t>
   </si>
@@ -86,22 +86,13 @@
   </si>
   <si>
     <t>Asal Sekolah</t>
-  </si>
-  <si>
-    <t>adawd</t>
-  </si>
-  <si>
-    <t>wdad@gmail.com</t>
-  </si>
-  <si>
-    <t>jawdj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,15 +114,6 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,17 +132,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DF3159-ED26-412C-8460-5E369615AB93}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,31 +484,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>1876</v>
-      </c>
-      <c r="D2" s="1">
-        <v>36067</v>
-      </c>
-      <c r="E2">
-        <v>8177</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{FBC8214B-FDD2-4AD9-9591-C8FEE4C16B37}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>